--- a/data_files/23July2024_SampleSheet_LG77Y.xlsx
+++ b/data_files/23July2024_SampleSheet_LG77Y.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MiSeq Runs\MISEQ RUNS 2024\240723_M06380_0075_000000000-LG77Y\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALLYSA FILE\2024\DMU Projects\wgs-qc\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFBFC899-2DDB-4E83-AE16-9A4329F90495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{146A411A-6AD4-4AE1-AA79-5B8B03412A92}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SampleSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Modified" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="137">
   <si>
     <t>[Header]</t>
   </si>
@@ -428,13 +428,16 @@
   </si>
   <si>
     <t>% Aligned (optional)</t>
+  </si>
+  <si>
+    <t>index reads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1451,21 +1454,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360FD9DB-9E1B-470D-A75B-6D19561F06EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>45497</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1529,27 +1532,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1557,12 +1560,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="15" thickBot="1">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1599,7 +1602,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" ht="19.5" thickBot="1">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" ht="28.9" customHeight="1" thickBot="1">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>95.4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" ht="19.5" thickBot="1">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>0.94569999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="19.5" thickBot="1">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" ht="28.9" customHeight="1" thickBot="1">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1777,7 +1780,7 @@
       <c r="N24" s="13"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" ht="19.5" thickBot="1">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>6.0552000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" ht="19.5" thickBot="1">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>7.8391000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" ht="19.5" thickBot="1">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>4.9935999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" ht="19.5" thickBot="1">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>1.0831999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" ht="19.5" thickBot="1">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>4.6231999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" ht="19.5" thickBot="1">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -1951,7 +1954,7 @@
         <v>2.9558</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" ht="19.5" thickBot="1">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>4.9706000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" ht="19.5" thickBot="1">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>3.9298000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" ht="19.5" thickBot="1">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>3.3224</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" ht="19.5" thickBot="1">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>4.0594000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" ht="19.5" thickBot="1">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>5.1283000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="19.5" thickBot="1">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>2.2747999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="19.5" thickBot="1">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -2154,7 +2157,7 @@
         <v>2.8874</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" ht="19.5" thickBot="1">
       <c r="A38" t="s">
         <v>113</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>4.9184000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" ht="19.5" thickBot="1">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>2.0324</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" ht="19.5" thickBot="1">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>3.738</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" ht="19.5" thickBot="1">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -2272,13 +2275,767 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M24:N24"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6.1222000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3.4836999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5.1959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>9.3620999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5.5411999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6.0552000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7.8391000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.9935999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.0831999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4.6231999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2.9558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>4.9706000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3.9298000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3.3224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4.0594000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
+        <v>5.1283000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2.2747999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2.8874</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>4.9184000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2.0324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3.738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>4.3907999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>